--- a/aichan/505232477804444715_2021-03-23_20-00-03.xlsx
+++ b/aichan/505232477804444715_2021-03-23_20-00-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-06-05 09:20:55</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44352.38952546296</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -615,10 +629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-05-17 22:49:06</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44333.95076388889</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -680,10 +692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-05-11 19:49:30</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44327.82604166667</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-05-09 09:29:10</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44325.39525462963</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-29 16:38:47</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44315.69359953704</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -898,10 +904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-04-24 20:45:37</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44310.86501157407</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -982,10 +986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-04-24 11:38:54</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44310.48534722222</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1050,10 +1052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:55:38</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44308.45530092593</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1126,10 +1126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-21 11:10:01</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44307.46528935185</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1202,10 +1200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-20 12:05:59</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44306.5041550926</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1279,10 +1275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-19 00:27:47</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44305.01929398148</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1363,10 +1357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-18 22:44:21</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44304.94746527778</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1435,10 +1427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-04-16 07:26:11</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44302.30984953704</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1514,10 +1504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-04-16 02:16:38</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44302.09488425926</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1590,10 +1578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-04-06 12:20:04</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44292.51393518518</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1681,10 +1667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-04-04 14:17:31</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44290.59549768519</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1748,10 +1732,8 @@
           <t>4304832927</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-04-02 19:04:29</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44288.79478009259</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1827,10 +1809,8 @@
           <t>4304832927</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-02 19:04:07</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44288.79452546296</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1907,10 +1887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-02 13:19:00</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44288.55486111111</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1974,10 +1952,8 @@
           <t>4332263058</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-29 09:56:23</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44284.41415509259</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2054,10 +2030,8 @@
           <t>4308144942</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-26 19:01:10</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44281.79247685185</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2125,10 +2099,8 @@
           <t>4308144942</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:22:19</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44281.76549768518</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2200,10 +2172,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:59:08</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44281.58273148148</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2279,10 +2249,8 @@
           <t>4317703573</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-26 11:24:28</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44281.47532407408</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2354,10 +2322,8 @@
           <t>4317703013</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-26 11:23:58</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44281.47497685185</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2429,10 +2395,8 @@
           <t>4317697099</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-26 11:22:15</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44281.47378472222</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2504,10 +2468,8 @@
           <t>4314589211</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:28:41</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44280.72825231482</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2583,10 +2545,8 @@
           <t>4306258775</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:12:42</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44280.71715277778</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2658,10 +2618,8 @@
           <t>4306258775</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-25 08:18:56</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44280.34648148148</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2733,10 +2691,8 @@
           <t>4306258775</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:16:33</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44279.96982638889</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2808,10 +2764,8 @@
           <t>4311213441</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:11:32</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44279.88300925926</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2871,10 +2825,8 @@
           <t>4309503698</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-24 13:44:52</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44279.57282407407</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -2950,10 +2902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-24 10:13:20</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44279.42592592593</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3017,10 +2967,8 @@
           <t>4308616884</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-24 09:18:33</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44279.38788194444</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3096,10 +3044,8 @@
           <t>4305297718</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-24 09:08:45</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44279.38107638889</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3168,10 +3114,8 @@
           <t>4308311501</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-24 06:08:38</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44279.25599537037</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3243,10 +3187,8 @@
           <t>4305010779</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-24 06:07:22</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44279.25511574074</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3318,10 +3260,8 @@
           <t>4308144942</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-24 02:11:46</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44279.09150462963</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3389,10 +3329,8 @@
           <t>4307858725</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:17:51</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44279.01239583334</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3468,10 +3406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:02:41</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44279.00186342592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3543,10 +3479,8 @@
           <t>4307485650</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:01:03</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44278.9590625</v>
       </c>
       <c r="I42" t="n">
         <v>8</v>
@@ -3618,10 +3552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:16:18</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44278.88631944444</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3685,10 +3617,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:04:19</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44278.87799768519</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3756,10 +3686,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:04:04</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44278.87782407407</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3827,10 +3755,8 @@
           <t>4304832927</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:46:22</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44278.86553240741</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3906,10 +3832,8 @@
           <t>4304832927</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:46:04</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44278.86532407408</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3985,10 +3909,8 @@
           <t>4304832927</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:45:56</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44278.86523148148</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -4064,10 +3986,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:24:04</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44278.8500462963</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4143,10 +4063,8 @@
           <t>4304962252</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:19:16</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44278.84671296296</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4214,10 +4132,8 @@
           <t>4305052058</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:16:07</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44278.84452546296</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4289,10 +4205,8 @@
           <t>4305530868</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:09:20</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44278.83981481481</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4352,10 +4266,8 @@
           <t>4306625067</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:03:36</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44278.83583333333</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4427,10 +4339,8 @@
           <t>4306481412</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:31:10</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44278.81331018519</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4498,10 +4408,8 @@
           <t>4304832927</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:29:55</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44278.81244212963</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4569,10 +4477,8 @@
           <t>4305810569</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:58:00</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44278.79027777778</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
@@ -4640,10 +4546,8 @@
           <t>4306319484</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:56:59</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44278.78957175926</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4715,10 +4619,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:55:43</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44278.78869212963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4790,10 +4692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:47:17</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44278.78283564815</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4861,10 +4761,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:44:07</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44278.78063657408</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4940,10 +4838,8 @@
           <t>4306258775</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:43:43</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44278.7803587963</v>
       </c>
       <c r="I61" t="n">
         <v>5</v>
@@ -5015,10 +4911,8 @@
           <t>4306236444</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:37:49</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44278.77626157407</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5091,10 +4985,8 @@
           <t>4305810569</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:28:57</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44278.77010416667</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5158,10 +5050,8 @@
           <t>4305159853</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:27:00</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44278.76875</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5229,10 +5119,8 @@
           <t>4306147084</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:18:32</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44278.76287037037</v>
       </c>
       <c r="I65" t="n">
         <v>2</v>
@@ -5292,10 +5180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:49:45</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44278.74288194445</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -5363,10 +5249,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:33:30</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44278.73159722222</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5442,10 +5326,8 @@
           <t>4305823615</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:31:57</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44278.73052083333</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5509,10 +5391,8 @@
           <t>4305514308</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:26:24</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44278.72666666667</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5584,10 +5464,8 @@
           <t>4305514308</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:17:56</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44278.72078703704</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5663,10 +5541,8 @@
           <t>4305514308</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:17:31</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44278.72049768519</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5742,10 +5618,8 @@
           <t>4305297718</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:17:27</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44278.72045138889</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5809,10 +5683,8 @@
           <t>4305823615</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:15:29</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44278.71908564815</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5888,10 +5760,8 @@
           <t>4305823615</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:13:45</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44278.71788194445</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5967,10 +5837,8 @@
           <t>4305823615</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:12:40</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44278.71712962963</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6034,10 +5902,8 @@
           <t>4305823615</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:12:29</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44278.71700231481</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6113,10 +5979,8 @@
           <t>4305823615</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:11:13</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44278.71612268518</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6192,10 +6056,8 @@
           <t>4304962252</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:10:49</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44278.7158449074</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6271,10 +6133,8 @@
           <t>4305823615</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:10:23</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44278.71554398148</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6338,10 +6198,8 @@
           <t>4305297718</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:07:55</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44278.71383101852</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6413,10 +6271,8 @@
           <t>4305823615</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:05:53</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44278.71241898148</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6492,10 +6348,8 @@
           <t>4305823615</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:00:53</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44278.70894675926</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6559,10 +6413,8 @@
           <t>4305810569</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:55:24</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44278.70513888889</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6626,10 +6478,8 @@
           <t>4305514308</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:52:04</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44278.70282407408</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6705,10 +6555,8 @@
           <t>4305514308</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:35:55</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44278.6916087963</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6772,10 +6620,8 @@
           <t>4304962252</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:31:49</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44278.68876157407</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6839,10 +6685,8 @@
           <t>4305514308</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:22:34</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44278.68233796296</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6918,10 +6762,8 @@
           <t>4305680416</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:16:32</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44278.67814814814</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6997,10 +6839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:14:19</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44278.6766087963</v>
       </c>
       <c r="I89" t="n">
         <v>6</v>
@@ -7064,10 +6904,8 @@
           <t>4305514308</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:13:18</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44278.67590277778</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7139,10 +6977,8 @@
           <t>4305617803</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:12:49</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44278.67556712963</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7210,10 +7046,8 @@
           <t>4305530868</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:10:26</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44278.67391203704</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -7290,10 +7124,8 @@
           <t>4305658328</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:10:12</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44278.67375</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7357,10 +7189,8 @@
           <t>4305514308</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:04:50</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44278.67002314814</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7424,10 +7254,8 @@
           <t>4305297718</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:04:40</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44278.66990740741</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -7487,10 +7315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:04:31</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44278.66980324074</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7562,10 +7388,8 @@
           <t>4305297718</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:02:01</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44278.66806712963</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
@@ -7625,10 +7449,8 @@
           <t>4305505583</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:01:38</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44278.66780092593</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7704,10 +7526,8 @@
           <t>4305514308</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:59:19</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44278.66619212963</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7783,10 +7603,8 @@
           <t>4305505583</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:51:08</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44278.66050925926</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7850,10 +7668,8 @@
           <t>4305514308</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:45:48</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44278.65680555555</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7925,10 +7741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:40:09</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44278.65288194444</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -8000,10 +7814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:37:14</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44278.65085648148</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8079,10 +7891,8 @@
           <t>4305514308</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:33:52</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44278.64851851852</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8158,10 +7968,8 @@
           <t>4305505583</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:32:44</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44278.64773148148</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8237,10 +8045,8 @@
           <t>4305530868</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:25:05</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44278.64241898148</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8300,10 +8106,8 @@
           <t>4304884792</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:24:01</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44278.64167824074</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8380,10 +8184,8 @@
           <t>4305526852</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:23:35</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44278.64137731482</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8455,10 +8257,8 @@
           <t>4305519414</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:23:33</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44278.64135416667</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8518,10 +8318,8 @@
           <t>4305514308</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:20:53</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44278.63950231481</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8593,10 +8391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:17:51</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44278.63739583334</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8660,10 +8456,8 @@
           <t>4305505583</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:15:15</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44278.63559027778</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8727,10 +8521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:16</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44278.63490740741</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8790,10 +8582,8 @@
           <t>4305500762</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:01</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44278.63473379629</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8865,10 +8655,8 @@
           <t>4304986316</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:13:24</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44278.63430555556</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8940,10 +8728,8 @@
           <t>4305497070</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:12:52</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44278.63393518519</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -9015,10 +8801,8 @@
           <t>4304986316</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:11:54</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44278.63326388889</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9094,10 +8878,8 @@
           <t>4305483962</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:09:27</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44278.6315625</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9165,10 +8947,8 @@
           <t>4304962252</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:07:54</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44278.63048611111</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9244,10 +9024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:06:45</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44278.6296875</v>
       </c>
       <c r="I120" t="n">
         <v>36</v>
@@ -9319,10 +9097,8 @@
           <t>4304977679</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:04:57</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44278.6284375</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9395,10 +9171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:03:23</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44278.62734953704</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9470,10 +9244,8 @@
           <t>4305467376</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:02:06</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44278.62645833333</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9537,10 +9309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:00:56</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44278.62564814815</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9608,10 +9378,8 @@
           <t>4305457865</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:59:49</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44278.62487268518</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9679,10 +9447,8 @@
           <t>4305446840</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:54:59</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44278.6215162037</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9746,10 +9512,8 @@
           <t>4304884792</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:54:19</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44278.62105324074</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9827,10 +9591,8 @@
           <t>4305442113</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:53:27</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44278.62045138889</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9902,10 +9664,8 @@
           <t>4305413697</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:43:54</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44278.61381944444</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9973,10 +9733,8 @@
           <t>4304884792</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:38:03</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44278.60975694445</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10053,10 +9811,8 @@
           <t>4305384922</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:34:33</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44278.60732638889</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10132,10 +9888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:33:08</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44278.60634259259</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10211,10 +9965,8 @@
           <t>4305377011</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:28:46</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44278.60331018519</v>
       </c>
       <c r="I133" t="n">
         <v>9</v>
@@ -10286,10 +10038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:28:29</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44278.60311342592</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10362,10 +10112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:27:52</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44278.60268518519</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10441,10 +10189,8 @@
           <t>4305297718</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:24:45</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44278.60052083333</v>
       </c>
       <c r="I136" t="n">
         <v>4</v>
@@ -10508,10 +10254,8 @@
           <t>4305354806</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:23:38</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44278.59974537037</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10579,10 +10323,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:13:31</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44278.59271990741</v>
       </c>
       <c r="I138" t="n">
         <v>2</v>
@@ -10654,10 +10396,8 @@
           <t>4305324733</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:12:57</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44278.59232638889</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10721,10 +10461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:12:42</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44278.59215277778</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10800,10 +10538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:10:03</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44278.5903125</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10879,10 +10615,8 @@
           <t>4305297718</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:08:48</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44278.58944444444</v>
       </c>
       <c r="I142" t="n">
         <v>19</v>
@@ -10954,10 +10688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:07:33</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44278.58857638889</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11021,10 +10753,8 @@
           <t>4305297718</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:03:19</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44278.58563657408</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -11096,10 +10826,8 @@
           <t>4305303437</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:03:09</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44278.58552083333</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11163,10 +10891,8 @@
           <t>4305297025</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:02:59</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44278.58540509259</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11234,10 +10960,8 @@
           <t>4305297718</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:02:20</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44278.58495370371</v>
       </c>
       <c r="I147" t="n">
         <v>27</v>
@@ -11301,10 +11025,8 @@
           <t>4305297025</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:01:33</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44278.58440972222</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11380,10 +11102,8 @@
           <t>4305301729</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:01:26</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44278.58432870371</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11447,10 +11167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-23 14:00:03</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44278.58336805556</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11510,10 +11228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:59:17</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44278.58283564815</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11585,10 +11301,8 @@
           <t>4304884792</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:57:59</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44278.58193287037</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11666,10 +11380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:56:29</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44278.5808912037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11737,10 +11449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:56:23</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44278.58082175926</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11812,10 +11522,8 @@
           <t>4305277196</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:54:27</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44278.57947916666</v>
       </c>
       <c r="I155" t="n">
         <v>3</v>
@@ -11887,10 +11595,8 @@
           <t>4305275490</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:52:44</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44278.57828703704</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11955,10 +11661,8 @@
           <t>4305263109</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:50:17</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44278.57658564814</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -12030,10 +11734,8 @@
           <t>4305262903</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:50:05</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44278.57644675926</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12101,10 +11803,8 @@
           <t>4305265367</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:49:42</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44278.57618055555</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12168,10 +11868,8 @@
           <t>4305265348</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:49:40</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44278.57615740741</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12247,10 +11945,8 @@
           <t>4304977679</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:48:12</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44278.57513888889</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12318,10 +12014,8 @@
           <t>4304883480</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:47:17</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44278.57450231481</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12385,10 +12079,8 @@
           <t>4305257034</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:46:42</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44278.57409722222</v>
       </c>
       <c r="I163" t="n">
         <v>6</v>
@@ -12460,10 +12152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:46:36</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44278.57402777778</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12535,10 +12225,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:42:32</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44278.5712037037</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12606,10 +12294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:42:00</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44278.57083333333</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12685,10 +12371,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:41:13</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44278.57028935185</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12756,10 +12440,8 @@
           <t>4304962252</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:40:34</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44278.56983796296</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12827,10 +12509,8 @@
           <t>4305229862</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:39:51</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44278.56934027778</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12894,10 +12574,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:39:41</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44278.56922453704</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12965,10 +12643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:39:39</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44278.56920138889</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13032,10 +12708,8 @@
           <t>4305159853</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:39:28</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44278.56907407408</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13111,10 +12785,8 @@
           <t>4305159853</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:39:15</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44278.56892361111</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13190,10 +12862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:38:13</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44278.56820601852</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13265,10 +12935,8 @@
           <t>4304962252</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:37:33</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44278.56774305556</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
@@ -13344,10 +13012,8 @@
           <t>4305227286</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:37:25</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44278.56765046297</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13419,10 +13085,8 @@
           <t>4305226106</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:36:21</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44278.56690972222</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13490,10 +13154,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:36:20</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44278.56689814815</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13561,10 +13223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:35:43</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44278.5664699074</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13628,10 +13288,8 @@
           <t>4304883480</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:34:56</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44278.56592592593</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13699,10 +13357,8 @@
           <t>4305052058</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:32:49</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44278.56445601852</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13778,10 +13434,8 @@
           <t>4305206245</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:31:22</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44278.56344907408</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13845,10 +13499,8 @@
           <t>4304890103</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:30:05</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44278.56255787037</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13920,10 +13572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:29:24</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44278.56208333333</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13987,10 +13637,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:29:22</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44278.56206018518</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14062,10 +13710,8 @@
           <t>4305192769</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:28:19</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44278.56133101852</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14133,10 +13779,8 @@
           <t>4305196042</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:27:22</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44278.5606712963</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14208,10 +13852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:27:08</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44278.56050925926</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14287,10 +13929,8 @@
           <t>4304985076</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:25:17</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44278.55922453704</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14362,10 +14002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:23:14</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44278.55780092593</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14433,10 +14071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:23:02</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44278.55766203703</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14509,10 +14145,8 @@
           <t>4304981057</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:22:25</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44278.55723379629</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14579,10 +14213,8 @@
           <t>4305159853</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:20:01</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44278.55556712963</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14658,10 +14290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:19:42</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44278.55534722222</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14738,10 +14368,8 @@
           <t>4304962252</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:19:06</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44278.55493055555</v>
       </c>
       <c r="I195" t="n">
         <v>2</v>
@@ -14805,10 +14433,8 @@
           <t>4305161350</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:18:32</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44278.55453703704</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14880,10 +14506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:18:24</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44278.55444444445</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14947,10 +14571,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:17:47</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44278.55401620371</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15018,10 +14640,8 @@
           <t>4305154419</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:17:33</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44278.55385416667</v>
       </c>
       <c r="I199" t="n">
         <v>5</v>
@@ -15089,10 +14709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:17:29</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44278.55380787037</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15160,10 +14778,8 @@
           <t>4305052058</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:17:27</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44278.55378472222</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15235,10 +14851,8 @@
           <t>4305148437</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:16:07</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44278.5528587963</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15306,10 +14920,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:15:29</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44278.55241898148</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15385,10 +14997,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:15:06</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44278.55215277777</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15464,10 +15074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:13:38</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44278.55113425926</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15531,10 +15139,8 @@
           <t>4304977679</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:13:01</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44278.55070601852</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15612,10 +15218,8 @@
           <t>4305140665</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:12:32</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44278.55037037037</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15679,10 +15283,8 @@
           <t>4305137882</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:12:16</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44278.55018518519</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15754,10 +15356,8 @@
           <t>4304832927</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:11:59</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44278.54998842593</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15825,10 +15425,8 @@
           <t>4305052058</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:11:38</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44278.54974537037</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15906,10 +15504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:10:48</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44278.54916666666</v>
       </c>
       <c r="I211" t="n">
         <v>26</v>
@@ -15985,10 +15581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:10:12</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44278.54875</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16048,10 +15642,8 @@
           <t>4305118683</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:08:30</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44278.54756944445</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16123,10 +15715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:07:28</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44278.54685185185</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16198,10 +15788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:06:50</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44278.54641203704</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16269,10 +15857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:06:38</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44278.54627314815</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16344,10 +15930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:06:07</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44278.54591435185</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16424,10 +16008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:05:57</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44278.54579861111</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16503,10 +16085,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:05:12</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44278.54527777778</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16574,10 +16154,8 @@
           <t>4305052058</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:05:11</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44278.54526620371</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16649,10 +16227,8 @@
           <t>4305103551</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:04:38</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44278.54488425926</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16728,10 +16304,8 @@
           <t>4304890103</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:04:18</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44278.54465277777</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16799,10 +16373,8 @@
           <t>4304977679</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:03:31</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44278.5441087963</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16878,10 +16450,8 @@
           <t>4305101725</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:03:17</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44278.54394675926</v>
       </c>
       <c r="I224" t="n">
         <v>9</v>
@@ -16949,10 +16519,8 @@
           <t>4305098219</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:03:16</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44278.54393518518</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -17020,10 +16588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:03:07</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44278.54383101852</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17091,10 +16657,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:02:34</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44278.54344907407</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17158,10 +16722,8 @@
           <t>4305094498</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:02:11</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44278.54318287037</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17233,10 +16795,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:01:44</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44278.54287037037</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17304,10 +16864,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:00:45</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44278.5421875</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17367,10 +16925,8 @@
           <t>4305086893</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-23 13:00:15</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44278.54184027778</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17442,10 +16998,8 @@
           <t>4305091333</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:59:51</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44278.5415625</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17521,10 +17075,8 @@
           <t>4305086893</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:59:42</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44278.54145833333</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17596,10 +17148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:59:07</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44278.54105324074</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17659,10 +17209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:57:25</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44278.53987268519</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17726,10 +17274,8 @@
           <t>4305068930</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:56:38</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44278.5393287037</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17793,10 +17339,8 @@
           <t>4305076072</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:56:10</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44278.53900462963</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17872,10 +17416,8 @@
           <t>4305075112</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:55:30</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44278.53854166667</v>
       </c>
       <c r="I238" t="n">
         <v>5</v>
@@ -17943,10 +17485,8 @@
           <t>4305043928</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:54:38</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44278.53793981481</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18018,10 +17558,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:53:50</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44278.53738425926</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18093,10 +17631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:53:30</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44278.53715277778</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18172,10 +17708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:53:29</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44278.53714120371</v>
       </c>
       <c r="I242" t="n">
         <v>13</v>
@@ -18251,10 +17785,8 @@
           <t>4304962252</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:53:16</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44278.53699074074</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18326,10 +17858,8 @@
           <t>4305053544</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:52:58</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44278.53678240741</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18405,10 +17935,8 @@
           <t>4305044870</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:52:55</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44278.53674768518</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18485,10 +18013,8 @@
           <t>4305057023</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:52:49</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44278.53667824074</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18560,10 +18086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:52:10</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44278.53622685185</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18639,10 +18163,8 @@
           <t>4305052058</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:51:56</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44278.53606481481</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18718,10 +18240,8 @@
           <t>4305051262</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:51:25</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44278.53570601852</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18794,10 +18314,8 @@
           <t>4305044870</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:51:19</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44278.53563657407</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18865,10 +18383,8 @@
           <t>4305044700</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:51:13</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44278.53556712963</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18932,10 +18448,8 @@
           <t>4305044593</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:51:08</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44278.53550925926</v>
       </c>
       <c r="I252" t="n">
         <v>13</v>
@@ -18995,10 +18509,8 @@
           <t>4305043928</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:50:42</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44278.53520833333</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19074,10 +18586,8 @@
           <t>4305039580</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:50:16</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44278.5349074074</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19149,10 +18659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:50:05</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44278.5347800926</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19228,10 +18736,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:49:53</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44278.5346412037</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19308,10 +18814,8 @@
           <t>4305038945</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:49:51</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44278.53461805556</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19375,10 +18879,8 @@
           <t>4305038585</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:49:38</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44278.5344675926</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19446,10 +18948,8 @@
           <t>4305037569</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:48:58</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44278.53400462963</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19513,10 +19013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:48:26</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44278.53363425926</v>
       </c>
       <c r="I260" t="n">
         <v>24</v>
@@ -19588,10 +19086,8 @@
           <t>4305033286</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:47:42</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44278.533125</v>
       </c>
       <c r="I261" t="n">
         <v>6</v>
@@ -19663,10 +19159,8 @@
           <t>4305011042</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:47:21</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44278.53288194445</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19743,10 +19237,8 @@
           <t>4305027530</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:46:29</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44278.53228009259</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19814,10 +19306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:46:26</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44278.53224537037</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19881,10 +19371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:46:22</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44278.53219907408</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19948,10 +19436,8 @@
           <t>4305023311</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:46:12</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44278.53208333333</v>
       </c>
       <c r="I266" t="n">
         <v>2</v>
@@ -20023,10 +19509,8 @@
           <t>4305030216</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:45:39</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44278.53170138889</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20098,10 +19582,8 @@
           <t>4305026231</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:45:36</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44278.53166666667</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20169,10 +19651,8 @@
           <t>4305026228</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:45:35</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44278.53165509259</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20244,10 +19724,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:45:22</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44278.53150462963</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20311,10 +19789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:45:04</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44278.5312962963</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20386,10 +19862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:45:02</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44278.53127314815</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20461,10 +19935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:44:53</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44278.53116898148</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20540,10 +20012,8 @@
           <t>4305014961</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:44:44</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44278.53106481482</v>
       </c>
       <c r="I274" t="n">
         <v>2</v>
@@ -20607,10 +20077,8 @@
           <t>4304977679</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:44:40</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44278.53101851852</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20678,10 +20146,8 @@
           <t>4305014298</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:44:17</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44278.53075231481</v>
       </c>
       <c r="I276" t="n">
         <v>5</v>
@@ -20758,10 +20224,8 @@
           <t>4305010779</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:43:52</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44278.53046296296</v>
       </c>
       <c r="I277" t="n">
         <v>3</v>
@@ -20833,10 +20297,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:43:40</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44278.53032407408</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20913,10 +20375,8 @@
           <t>4304962509</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:42:29</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44278.52950231481</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20992,10 +20452,8 @@
           <t>4305011042</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:42:05</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44278.52922453704</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -21063,10 +20521,8 @@
           <t>4305004674</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:42:00</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44278.52916666667</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21130,10 +20586,8 @@
           <t>4305010779</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:41:55</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44278.5291087963</v>
       </c>
       <c r="I282" t="n">
         <v>5</v>
@@ -21209,10 +20663,8 @@
           <t>4305004126</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:41:40</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44278.52893518518</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21276,10 +20728,8 @@
           <t>4305010314</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:41:38</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44278.52891203704</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21355,10 +20805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:41:21</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44278.52871527777</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21418,10 +20866,8 @@
           <t>4304962252</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:41:10</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44278.52858796297</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21489,10 +20935,8 @@
           <t>4305005506</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:40:58</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44278.52844907407</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21564,10 +21008,8 @@
           <t>4305005226</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:40:46</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44278.52831018518</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21634,10 +21076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:40:43</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44278.52827546297</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21701,10 +21141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:40:34</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44278.5281712963</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21776,10 +21214,8 @@
           <t>4304890103</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:40:19</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44278.52799768518</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21847,10 +21283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:39:43</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44278.52758101852</v>
       </c>
       <c r="I292" t="n">
         <v>47</v>
@@ -21914,10 +21348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:39:38</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44278.52752314815</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21988,10 +21420,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:39:38</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44278.52752314815</v>
       </c>
       <c r="I294" t="n">
         <v>21</v>
@@ -22067,10 +21497,8 @@
           <t>4305000764</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:39:26</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44278.52738425926</v>
       </c>
       <c r="I295" t="n">
         <v>7</v>
@@ -22130,10 +21558,8 @@
           <t>4304962509</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:39:24</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44278.52736111111</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22210,10 +21636,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:39:19</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44278.52730324074</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22280,10 +21704,8 @@
           <t>4304832927</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:39:00</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44278.52708333333</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22351,10 +21773,8 @@
           <t>4304992382</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:38:53</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44278.52700231481</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22418,10 +21838,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:38:09</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44278.52649305556</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22485,10 +21903,8 @@
           <t>4304991295</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:38:07</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44278.52646990741</v>
       </c>
       <c r="I301" t="n">
         <v>7</v>
@@ -22555,10 +21971,8 @@
           <t>4304988248</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:37:44</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44278.5262037037</v>
       </c>
       <c r="I302" t="n">
         <v>12</v>
@@ -22634,10 +22048,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:37:41</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44278.52616898148</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22701,10 +22113,8 @@
           <t>4304981057</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:37:25</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44278.52598379629</v>
       </c>
       <c r="I304" t="n">
         <v>2</v>
@@ -22768,10 +22178,8 @@
           <t>4304957933</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:37:00</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44278.52569444444</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22847,10 +22255,8 @@
           <t>4304982767</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:36:48</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44278.52555555556</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22918,10 +22324,8 @@
           <t>4304977679</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:36:41</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44278.52547453704</v>
       </c>
       <c r="I307" t="n">
         <v>11</v>
@@ -22985,10 +22389,8 @@
           <t>4304982767</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:36:30</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44278.52534722222</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -23060,10 +22462,8 @@
           <t>4304978828</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:36:30</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44278.52534722222</v>
       </c>
       <c r="I309" t="n">
         <v>5</v>
@@ -23131,10 +22531,8 @@
           <t>4304986316</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:36:29</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44278.52533564815</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23216,10 +22614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:36:18</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44278.52520833333</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23295,10 +22691,8 @@
           <t>4304978299</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:36:08</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44278.52509259259</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23375,10 +22769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:35:48</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44278.52486111111</v>
       </c>
       <c r="I313" t="n">
         <v>164</v>
@@ -23442,10 +22834,8 @@
           <t>4304977679</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:35:43</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44278.52480324074</v>
       </c>
       <c r="I314" t="n">
         <v>2</v>
@@ -23521,10 +22911,8 @@
           <t>4304985076</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:35:40</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44278.52476851852</v>
       </c>
       <c r="I315" t="n">
         <v>21</v>
@@ -23588,10 +22976,8 @@
           <t>4304981057</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:35:19</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44278.52452546296</v>
       </c>
       <c r="I316" t="n">
         <v>11</v>
@@ -23659,10 +23045,8 @@
           <t>4304977006</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:35:17</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44278.52450231482</v>
       </c>
       <c r="I317" t="n">
         <v>3</v>
@@ -23730,10 +23114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:35:10</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44278.52442129629</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23801,10 +23183,8 @@
           <t>4304980694</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:35:04</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44278.52435185185</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23872,10 +23252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:34:55</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44278.52424768519</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23939,10 +23317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:34:51</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44278.52420138889</v>
       </c>
       <c r="I321" t="n">
         <v>2</v>
@@ -24018,10 +23394,8 @@
           <t>4304962252</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:34:32</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44278.52398148148</v>
       </c>
       <c r="I322" t="n">
         <v>16</v>
@@ -24097,10 +23471,8 @@
           <t>4304975833</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:34:31</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44278.52396990741</v>
       </c>
       <c r="I323" t="n">
         <v>6</v>
@@ -24164,10 +23536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:34:30</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44278.52395833333</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24231,10 +23601,8 @@
           <t>4304972908</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:34:17</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44278.52380787037</v>
       </c>
       <c r="I325" t="n">
         <v>4</v>
@@ -24302,10 +23670,8 @@
           <t>4304957933</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:33:54</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44278.52354166667</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24381,10 +23747,8 @@
           <t>4304962670</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:33:44</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44278.52342592592</v>
       </c>
       <c r="I327" t="n">
         <v>19</v>
@@ -24456,10 +23820,8 @@
           <t>4304962252</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:33:43</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44278.52341435185</v>
       </c>
       <c r="I328" t="n">
         <v>7</v>
@@ -24535,10 +23897,8 @@
           <t>4304971703</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:33:27</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44278.52322916667</v>
       </c>
       <c r="I329" t="n">
         <v>4</v>
@@ -24606,10 +23966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:33:20</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44278.52314814815</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24673,10 +24031,8 @@
           <t>4304962252</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:33:16</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44278.52310185185</v>
       </c>
       <c r="I331" t="n">
         <v>2</v>
@@ -24744,10 +24100,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:33:08</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44278.52300925926</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24824,10 +24178,8 @@
           <t>4304970962</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:32:58</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44278.52289351852</v>
       </c>
       <c r="I333" t="n">
         <v>2</v>
@@ -24891,10 +24243,8 @@
           <t>4304963466</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:32:57</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44278.52288194445</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24966,10 +24316,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:32:50</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44278.52280092592</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25045,10 +24393,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:32:36</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44278.52263888889</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -25125,10 +24471,8 @@
           <t>4304962959</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:32:36</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44278.52263888889</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25200,10 +24544,8 @@
           <t>4304962849</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:32:31</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44278.52258101852</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25267,10 +24609,8 @@
           <t>4304962670</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:32:23</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44278.52248842592</v>
       </c>
       <c r="I339" t="n">
         <v>3</v>
@@ -25338,10 +24678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:32:21</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44278.52246527778</v>
       </c>
       <c r="I340" t="n">
         <v>29</v>
@@ -25413,10 +24751,8 @@
           <t>4304962509</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:32:17</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44278.52241898148</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25492,10 +24828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:32:15</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44278.52239583333</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25563,10 +24897,8 @@
           <t>4304962252</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:32:08</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44278.52231481481</v>
       </c>
       <c r="I343" t="n">
         <v>112</v>
@@ -25642,10 +24974,8 @@
           <t>4304893882</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:31:40</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44278.52199074074</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25713,10 +25043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:31:39</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44278.52197916667</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25788,10 +25116,8 @@
           <t>4304961366</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:31:33</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44278.52190972222</v>
       </c>
       <c r="I346" t="n">
         <v>10</v>
@@ -25859,10 +25185,8 @@
           <t>4304958632</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:31:27</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44278.52184027778</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25938,10 +25262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:31:20</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44278.52175925926</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26013,10 +25335,8 @@
           <t>4304960846</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:31:13</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44278.52167824074</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26088,10 +25408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:31:02</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44278.52155092593</v>
       </c>
       <c r="I350" t="n">
         <v>5</v>
@@ -26155,10 +25473,8 @@
           <t>4304957933</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:31:00</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44278.52152777778</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26234,10 +25550,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:31:00</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44278.52152777778</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26301,10 +25615,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:30:46</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44278.52136574074</v>
       </c>
       <c r="I353" t="n">
         <v>3</v>
@@ -26376,10 +25688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:30:33</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44278.52121527777</v>
       </c>
       <c r="I354" t="n">
         <v>2</v>
@@ -26455,10 +25765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:30:32</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44278.52120370371</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26518,10 +25826,8 @@
           <t>4304949382</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:30:16</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44278.52101851852</v>
       </c>
       <c r="I356" t="n">
         <v>3</v>
@@ -26591,10 +25897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:30:14</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44278.52099537037</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26670,10 +25974,8 @@
           <t>4304953136</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:30:04</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44278.52087962963</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26737,10 +26039,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:30:04</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44278.52087962963</v>
       </c>
       <c r="I359" t="n">
         <v>6</v>
@@ -26819,10 +26119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:29:52</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44278.52074074074</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26894,10 +26192,8 @@
           <t>4304952729</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:29:47</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44278.52068287037</v>
       </c>
       <c r="I361" t="n">
         <v>17</v>
@@ -26973,10 +26269,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:29:33</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44278.52052083334</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27048,10 +26342,8 @@
           <t>4304893917</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:29:25</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44278.52042824074</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27127,10 +26419,8 @@
           <t>4304955444</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:29:22</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44278.52039351852</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27202,10 +26492,8 @@
           <t>4304947910</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:29:18</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44278.52034722222</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27269,10 +26557,8 @@
           <t>4304947714</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:29:10</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44278.52025462963</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27348,10 +26634,8 @@
           <t>4304903724</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:28:52</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44278.5200462963</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27427,10 +26711,8 @@
           <t>4304884792</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:28:35</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44278.51984953704</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27507,10 +26789,8 @@
           <t>4304950243</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:28:03</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44278.51947916667</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27582,10 +26862,8 @@
           <t>4304945983</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:28:02</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44278.5194675926</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27662,10 +26940,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:28:02</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44278.5194675926</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27737,10 +27013,8 @@
           <t>4304950025</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:27:54</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44278.519375</v>
       </c>
       <c r="I372" t="n">
         <v>2</v>
@@ -27816,10 +27090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:27:52</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44278.51935185185</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27879,10 +27151,8 @@
           <t>4304939963</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:27:52</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44278.51935185185</v>
       </c>
       <c r="I374" t="n">
         <v>10</v>
@@ -27950,10 +27220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:27:49</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44278.51931712963</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -28029,10 +27297,8 @@
           <t>4304945405</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:27:39</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44278.51920138889</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28104,10 +27370,8 @@
           <t>4304939205</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:27:23</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44278.5190162037</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28171,10 +27435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:27:20</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44278.51898148148</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28250,10 +27512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:27:15</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44278.51892361111</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28325,10 +27585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:27:12</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44278.51888888889</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28404,10 +27662,8 @@
           <t>4304890103</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:27:00</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44278.51875</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28479,10 +27735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:59</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44278.51873842593</v>
       </c>
       <c r="I382" t="n">
         <v>40</v>
@@ -28550,10 +27804,8 @@
           <t>4304941613</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:54</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44278.51868055556</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28629,10 +27881,8 @@
           <t>4304886756</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:54</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44278.51868055556</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28706,10 +27956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:48</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44278.51861111111</v>
       </c>
       <c r="I385" t="n">
         <v>70</v>
@@ -28785,10 +28033,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:45</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44278.51857638889</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28865,10 +28111,8 @@
           <t>4304941151</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:36</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44278.51847222223</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28932,10 +28176,8 @@
           <t>4304937942</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:32</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44278.51842592593</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -29003,10 +28245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:25</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44278.51834490741</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -29074,10 +28314,8 @@
           <t>4304846384</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:23</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44278.51832175926</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29153,10 +28391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:21</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44278.51829861111</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29229,10 +28465,8 @@
           <t>4304886756</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:19</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44278.51827546296</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29308,10 +28542,8 @@
           <t>4304937508</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:15</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44278.51822916666</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29387,10 +28619,8 @@
           <t>4304893917</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:15</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44278.51822916666</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29466,10 +28696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:04</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44278.51810185185</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29541,10 +28769,8 @@
           <t>4304940353</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:26:04</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44278.51810185185</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29620,10 +28846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:25:55</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44278.51799768519</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29699,10 +28923,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:25:52</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44278.51796296296</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29779,10 +29001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:25:49</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44278.51792824074</v>
       </c>
       <c r="I399" t="n">
         <v>31</v>
@@ -29846,10 +29066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:25:49</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44278.51792824074</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29913,10 +29131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:25:26</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44278.51766203704</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -29980,10 +29196,8 @@
           <t>4304928992</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:25:11</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44278.51748842592</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -30056,10 +29270,8 @@
           <t>4304884792</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:25:06</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44278.51743055556</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30136,10 +29348,8 @@
           <t>4304927380</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:25:05</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44278.51741898148</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30207,10 +29417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:25:04</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44278.51740740741</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30286,10 +29494,8 @@
           <t>4304884792</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:25:02</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44278.51738425926</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -30366,10 +29572,8 @@
           <t>4304884792</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:24:58</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44278.51733796296</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30446,10 +29650,8 @@
           <t>4304915375</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:24:56</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44278.51731481482</v>
       </c>
       <c r="I408" t="n">
         <v>6</v>
@@ -30517,10 +29719,8 @@
           <t>4304931198</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:24:52</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44278.51726851852</v>
       </c>
       <c r="I409" t="n">
         <v>2</v>
@@ -30588,10 +29788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:24:39</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44278.51711805556</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30659,10 +29857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:24:37</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44278.51709490741</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30734,10 +29930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:24:33</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44278.51704861111</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30813,10 +30007,8 @@
           <t>4304927380</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:24:06</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44278.51673611111</v>
       </c>
       <c r="I413" t="n">
         <v>3</v>
@@ -30884,10 +30076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:23:45</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44278.51649305555</v>
       </c>
       <c r="I414" t="n">
         <v>41</v>
@@ -30964,10 +30154,8 @@
           <t>4304926603</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:23:35</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44278.51637731482</v>
       </c>
       <c r="I415" t="n">
         <v>2</v>
@@ -31043,10 +30231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:23:31</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44278.51633101852</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -31122,10 +30308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:23:25</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44278.51626157408</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31201,10 +30385,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:23:20</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44278.5162037037</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31276,10 +30458,8 @@
           <t>4304884792</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:23:04</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44278.51601851852</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31355,10 +30535,8 @@
           <t>4304893882</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:23:02</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44278.51599537037</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31426,10 +30604,8 @@
           <t>4304885874</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:22:56</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44278.51592592592</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31493,10 +30669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:22:55</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44278.51591435185</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31572,10 +30746,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:22:55</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44278.51591435185</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31647,10 +30819,8 @@
           <t>4304893882</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:22:49</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44278.51584490741</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31718,10 +30888,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:22:48</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44278.51583333333</v>
       </c>
       <c r="I425" t="n">
         <v>2</v>
@@ -31789,10 +30957,8 @@
           <t>4304917722</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:22:32</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44278.51564814815</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31868,10 +31034,8 @@
           <t>4304914603</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:22:15</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44278.51545138889</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31947,10 +31111,8 @@
           <t>4304917128</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:22:09</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44278.51538194445</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -32018,10 +31180,8 @@
           <t>4304884792</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:21:59</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44278.51526620371</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -32099,10 +31259,8 @@
           <t>4304921220</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:21:53</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44278.51519675926</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32180,10 +31338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:21:38</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44278.51502314815</v>
       </c>
       <c r="I431" t="n">
         <v>968</v>
@@ -32251,10 +31407,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:21:32</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44278.51495370371</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32331,10 +31485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:21:23</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44278.51484953704</v>
       </c>
       <c r="I433" t="n">
         <v>439</v>
@@ -32402,10 +31554,8 @@
           <t>4304913001</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:21:16</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44278.51476851852</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32481,10 +31631,8 @@
           <t>4304920303</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:21:16</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44278.51476851852</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32548,10 +31696,8 @@
           <t>4304915375</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:20:58</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44278.51456018518</v>
       </c>
       <c r="I436" t="n">
         <v>15</v>
@@ -32623,10 +31769,8 @@
           <t>4304909707</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:20:51</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44278.51447916667</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32702,10 +31846,8 @@
           <t>4304893882</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:20:23</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44278.51415509259</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32781,10 +31923,8 @@
           <t>4304911668</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:20:21</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44278.51413194444</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32860,10 +32000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:20:19</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44278.5141087963</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32931,10 +32069,8 @@
           <t>4304904407</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:20:19</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44278.5141087963</v>
       </c>
       <c r="I441" t="n">
         <v>13</v>
@@ -33011,10 +32147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:19:58</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44278.51386574074</v>
       </c>
       <c r="I442" t="n">
         <v>147</v>
@@ -33086,10 +32220,8 @@
           <t>4304893917</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:19:58</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44278.51386574074</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -33165,10 +32297,8 @@
           <t>4304903724</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:19:51</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44278.51378472222</v>
       </c>
       <c r="I444" t="n">
         <v>3</v>
@@ -33236,10 +32366,8 @@
           <t>4304903649</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:19:48</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44278.51375</v>
       </c>
       <c r="I445" t="n">
         <v>2</v>
@@ -33316,10 +32444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:19:47</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44278.51373842593</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33396,10 +32522,8 @@
           <t>4304910834</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:19:46</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44278.51372685185</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -33475,10 +32599,8 @@
           <t>4304889270</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:19:44</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44278.51370370371</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33554,10 +32676,8 @@
           <t>4304884792</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:19:41</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44278.51366898148</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33625,10 +32745,8 @@
           <t>4304885874</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:19:32</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44278.51356481481</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33704,10 +32822,8 @@
           <t>4304889270</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:19:28</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44278.51351851852</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33783,10 +32899,8 @@
           <t>4304910315</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:19:26</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44278.51349537037</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33854,10 +32968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:19:22</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44278.51344907407</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33936,10 +33048,8 @@
           <t>4304902662</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:19:09</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44278.51329861111</v>
       </c>
       <c r="I454" t="n">
         <v>3</v>
@@ -34015,10 +33125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:18:56</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44278.51314814815</v>
       </c>
       <c r="I455" t="n">
         <v>6</v>
@@ -34090,10 +33198,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:18:56</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44278.51314814815</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -34170,10 +33276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:18:55</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44278.51313657407</v>
       </c>
       <c r="I457" t="n">
         <v>2</v>
@@ -34237,10 +33341,8 @@
           <t>4304899522</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:18:52</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44278.51310185185</v>
       </c>
       <c r="I458" t="n">
         <v>2</v>
@@ -34316,10 +33418,8 @@
           <t>4304902202</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:18:49</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44278.51306712963</v>
       </c>
       <c r="I459" t="n">
         <v>1</v>
@@ -34383,10 +33483,8 @@
           <t>4304859119</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:18:47</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44278.51304398148</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34464,10 +33562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:18:27</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44278.5128125</v>
       </c>
       <c r="I461" t="n">
         <v>56</v>
@@ -34531,10 +33627,8 @@
           <t>4304883480</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:18:18</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44278.51270833334</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34598,10 +33692,8 @@
           <t>4304864012</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:18:18</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44278.51270833334</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34677,10 +33769,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:18:18</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44278.51270833334</v>
       </c>
       <c r="I464" t="n">
         <v>3</v>
@@ -34757,10 +33847,8 @@
           <t>4304885874</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:18:15</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44278.51267361111</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34824,10 +33912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:17:59</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44278.51248842593</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34891,10 +33977,8 @@
           <t>4304900934</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:17:57</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44278.51246527778</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34966,10 +34050,8 @@
           <t>4304900856</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:17:54</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44278.51243055556</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -35045,10 +34127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:17:43</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44278.51230324074</v>
       </c>
       <c r="I469" t="n">
         <v>251</v>
@@ -35125,10 +34205,8 @@
           <t>4304891361</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:17:39</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44278.51225694444</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -35200,10 +34278,8 @@
           <t>4304890617</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:17:38</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44278.51224537037</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35279,10 +34355,8 @@
           <t>4304894479</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:17:13</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44278.51195601852</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35358,10 +34432,8 @@
           <t>4304891361</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:17:11</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44278.51193287037</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35437,10 +34509,8 @@
           <t>4304885874</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:17:06</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44278.511875</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35512,10 +34582,8 @@
           <t>4304891361</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:17:05</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44278.51186342593</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35591,10 +34659,8 @@
           <t>4304885874</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:16:56</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44278.51175925926</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35658,10 +34724,8 @@
           <t>4304885874</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:16:52</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44278.51171296297</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35729,10 +34793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:16:50</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44278.51168981481</v>
       </c>
       <c r="I478" t="n">
         <v>82</v>
@@ -35808,10 +34870,8 @@
           <t>4304889270</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:16:49</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44278.51167824074</v>
       </c>
       <c r="I479" t="n">
         <v>2</v>
@@ -35879,10 +34939,8 @@
           <t>4304893917</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:16:48</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44278.51166666667</v>
       </c>
       <c r="I480" t="n">
         <v>2</v>
@@ -35958,10 +35016,8 @@
           <t>4304893882</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:16:47</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44278.5116550926</v>
       </c>
       <c r="I481" t="n">
         <v>2</v>
@@ -36029,10 +35085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:16:44</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44278.51162037037</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -36100,10 +35154,8 @@
           <t>4304893734</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:16:42</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44278.51159722222</v>
       </c>
       <c r="I483" t="n">
         <v>5</v>
@@ -36167,10 +35219,8 @@
           <t>4304888644</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:16:23</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44278.51137731481</v>
       </c>
       <c r="I484" t="n">
         <v>1</v>
@@ -36238,10 +35288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:16:16</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44278.5112962963</v>
       </c>
       <c r="I485" t="n">
         <v>4</v>
@@ -36313,10 +35361,8 @@
           <t>4304888449</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:16:14</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44278.51127314815</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36393,10 +35439,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:16:00</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44278.51111111111</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36468,10 +35512,8 @@
           <t>4304887956</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:15:53</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44278.5110300926</v>
       </c>
       <c r="I488" t="n">
         <v>2</v>
@@ -36547,10 +35589,8 @@
           <t>4304885874</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:15:53</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44278.5110300926</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36614,10 +35654,8 @@
           <t>4304887827</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:15:48</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44278.51097222222</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -36689,10 +35727,8 @@
           <t>4304887794</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:15:46</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44278.51094907407</v>
       </c>
       <c r="I491" t="n">
         <v>6</v>
@@ -36756,10 +35792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:15:44</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44278.51092592593</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36831,10 +35865,8 @@
           <t>4304884792</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:15:37</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44278.51084490741</v>
       </c>
       <c r="I493" t="n">
         <v>13</v>
@@ -36911,10 +35943,8 @@
           <t>4304887094</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:15:17</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44278.51061342593</v>
       </c>
       <c r="I494" t="n">
         <v>20</v>
@@ -36982,10 +36012,8 @@
           <t>4304884048</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:15:06</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44278.51048611111</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -37061,10 +36089,8 @@
           <t>4304891361</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:15:05</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44278.51047453703</v>
       </c>
       <c r="I496" t="n">
         <v>4</v>
@@ -37130,10 +36156,8 @@
           <t>4304886756</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:15:03</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44278.51045138889</v>
       </c>
       <c r="I497" t="n">
         <v>24</v>
@@ -37205,10 +36229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:14:52</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44278.51032407407</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -37280,10 +36302,8 @@
           <t>4304883480</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:14:45</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44278.51024305556</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -37351,10 +36371,8 @@
           <t>4304890617</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:14:33</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44278.51010416666</v>
       </c>
       <c r="I500" t="n">
         <v>2</v>
@@ -37426,10 +36444,8 @@
           <t>4304885874</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:14:27</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44278.51003472223</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37493,10 +36509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:14:25</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44278.51001157407</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -37572,10 +36586,8 @@
           <t>4304872303</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:14:25</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44278.51001157407</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37652,10 +36664,8 @@
           <t>4304890354</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:14:23</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44278.50998842593</v>
       </c>
       <c r="I504" t="n">
         <v>4</v>
@@ -37723,10 +36733,8 @@
           <t>4304890103</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:14:12</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44278.50986111111</v>
       </c>
       <c r="I505" t="n">
         <v>8</v>
@@ -37794,10 +36802,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:14:12</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44278.50986111111</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37865,10 +36871,8 @@
           <t>4304885459</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:14:11</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44278.50984953704</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37944,10 +36948,8 @@
           <t>4304882652</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:14:10</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44278.50983796296</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -38023,10 +37025,8 @@
           <t>4304874771</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:13:41</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44278.50950231482</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -38103,10 +37103,8 @@
           <t>4304880149</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:13:33</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44278.50940972222</v>
       </c>
       <c r="I510" t="n">
         <v>1</v>
@@ -38182,10 +37180,8 @@
           <t>4304881672</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:13:28</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44278.50935185186</v>
       </c>
       <c r="I511" t="n">
         <v>14</v>
@@ -38257,10 +37253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:13:22</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44278.50928240741</v>
       </c>
       <c r="I512" t="n">
         <v>142</v>
@@ -38337,10 +37331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:13:07</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44278.50910879629</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38412,10 +37404,8 @@
           <t>4304878454</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:13:02</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44278.50905092592</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -38491,10 +37481,8 @@
           <t>4304872303</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:11:59</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44278.50832175926</v>
       </c>
       <c r="I515" t="n">
         <v>35</v>
@@ -38562,10 +37550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:11:48</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44278.50819444445</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38633,10 +37619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:11:12</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44278.50777777778</v>
       </c>
       <c r="I517" t="n">
         <v>4</v>
@@ -38708,10 +37692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:11:09</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44278.50774305555</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38783,10 +37765,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:10:30</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44278.50729166667</v>
       </c>
       <c r="I519" t="n">
         <v>1</v>
@@ -38859,10 +37839,8 @@
           <t>4304867241</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:10:18</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44278.50715277778</v>
       </c>
       <c r="I520" t="n">
         <v>6</v>
@@ -38926,10 +37904,8 @@
           <t>4304864012</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:09:54</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44278.506875</v>
       </c>
       <c r="I521" t="n">
         <v>5</v>
@@ -38997,10 +37973,8 @@
           <t>4304866635</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:09:53</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44278.50686342592</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -39068,10 +38042,8 @@
           <t>4304859119</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:09:44</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44278.50675925926</v>
       </c>
       <c r="I523" t="n">
         <v>11</v>
@@ -39147,10 +38119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:09:34</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44278.50664351852</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -39214,10 +38184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:09:02</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44278.50627314814</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -39293,10 +38261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:08:44</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44278.50606481481</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -39365,10 +38331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:08:42</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44278.50604166667</v>
       </c>
       <c r="I527" t="n">
         <v>63</v>
@@ -39436,10 +38400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:08:35</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44278.50596064814</v>
       </c>
       <c r="I528" t="n">
         <v>1</v>
@@ -39503,10 +38465,8 @@
           <t>4304862117</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:08:33</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44278.5059375</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39582,10 +38542,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:08:11</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44278.50568287037</v>
       </c>
       <c r="I530" t="n">
         <v>4</v>
@@ -39661,10 +38619,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:07:41</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44278.50533564815</v>
       </c>
       <c r="I531" t="n">
         <v>2</v>
@@ -39732,10 +38688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:07:35</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44278.50526620371</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39811,10 +38765,8 @@
           <t>4304853329</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:07:30</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44278.50520833334</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39886,10 +38838,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:06:47</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44278.50471064815</v>
       </c>
       <c r="I534" t="n">
         <v>1</v>
@@ -39957,10 +38907,8 @@
           <t>4304844791</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:06:36</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44278.50458333334</v>
       </c>
       <c r="I535" t="n">
         <v>11</v>
@@ -40020,10 +38968,8 @@
           <t>4304844150</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:06:08</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44278.50425925926</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -40083,10 +39029,8 @@
           <t>4304846384</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:05:52</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44278.50407407407</v>
       </c>
       <c r="I537" t="n">
         <v>1</v>
@@ -40158,10 +39102,8 @@
           <t>4304832927</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:05:46</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44278.50400462963</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -40237,10 +39179,8 @@
           <t>4304843455</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:05:37</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44278.50390046297</v>
       </c>
       <c r="I539" t="n">
         <v>7</v>
@@ -40312,10 +39252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:04:57</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44278.5034375</v>
       </c>
       <c r="I540" t="n">
         <v>85</v>
@@ -40391,10 +39329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:04:24</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44278.50305555556</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40466,10 +39402,8 @@
           <t>4304841777</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:04:21</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44278.50302083333</v>
       </c>
       <c r="I542" t="n">
         <v>11</v>
@@ -40541,10 +39475,8 @@
           <t>4304846384</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:04:17</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44278.50297453703</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40612,10 +39544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:04:16</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44278.50296296296</v>
       </c>
       <c r="I544" t="n">
         <v>29</v>
@@ -40684,10 +39614,8 @@
           <t>4304846329</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:04:14</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44278.50293981482</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40755,10 +39683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:03:34</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44278.50247685185</v>
       </c>
       <c r="I546" t="n">
         <v>35</v>
@@ -40818,10 +39744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:03:26</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44278.50238425926</v>
       </c>
       <c r="I547" t="n">
         <v>30</v>
@@ -40889,10 +39813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:03:24</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44278.50236111111</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40976,10 +39898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:03:21</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44278.50232638889</v>
       </c>
       <c r="I549" t="n">
         <v>66</v>
@@ -41047,10 +39967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:03:04</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44278.50212962963</v>
       </c>
       <c r="I550" t="n">
         <v>3</v>
@@ -41115,10 +40033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:02:39</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44278.50184027778</v>
       </c>
       <c r="I551" t="n">
         <v>26</v>
@@ -41194,10 +40110,8 @@
           <t>4304829454</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:02:38</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44278.5018287037</v>
       </c>
       <c r="I552" t="n">
         <v>6</v>
@@ -41275,10 +40189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:02:24</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44278.50166666666</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -41350,10 +40262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:02:21</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44278.50163194445</v>
       </c>
       <c r="I554" t="n">
         <v>44</v>
@@ -41428,10 +40338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:02:19</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44278.50160879629</v>
       </c>
       <c r="I555" t="n">
         <v>195</v>
@@ -41507,10 +40415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:02:01</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44278.50140046296</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41582,10 +40488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:01:57</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44278.50135416666</v>
       </c>
       <c r="I557" t="n">
         <v>1</v>
@@ -41653,10 +40557,8 @@
           <t>4304832927</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:01:41</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44278.50116898148</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41732,10 +40634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:01:38</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44278.50113425926</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41807,10 +40707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:01:34</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44278.50108796296</v>
       </c>
       <c r="I560" t="n">
         <v>203</v>
@@ -41882,10 +40780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:01:25</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44278.50098379629</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41945,10 +40841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:01:16</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44278.50087962963</v>
       </c>
       <c r="I562" t="n">
         <v>6</v>
@@ -42024,10 +40918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:01:10</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44278.50081018519</v>
       </c>
       <c r="I563" t="n">
         <v>1113</v>
@@ -42091,10 +40983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:01:10</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44278.50081018519</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -42170,10 +41060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:01:09</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44278.50079861111</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -42241,10 +41129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:01:06</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44278.50076388889</v>
       </c>
       <c r="I566" t="n">
         <v>1</v>
@@ -42313,10 +41199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:01:03</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44278.50072916667</v>
       </c>
       <c r="I567" t="n">
         <v>4</v>
@@ -42380,10 +41264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:59</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44278.50068287037</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -42455,10 +41337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:55</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44278.50063657408</v>
       </c>
       <c r="I569" t="n">
         <v>2</v>
@@ -42526,10 +41406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:52</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44278.50060185185</v>
       </c>
       <c r="I570" t="n">
         <v>1</v>
@@ -42605,10 +41483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:51</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44278.50059027778</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42672,10 +41548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:48</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44278.50055555555</v>
       </c>
       <c r="I572" t="n">
         <v>2</v>
@@ -42747,10 +41621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:46</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44278.50053240741</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42822,10 +41694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:45</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44278.50052083333</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42897,10 +41767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:44</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44278.50050925926</v>
       </c>
       <c r="I575" t="n">
         <v>5</v>
@@ -42976,10 +41844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:43</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44278.50049768519</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -43047,10 +41913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:43</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44278.50049768519</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -43126,10 +41990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:39</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44278.50045138889</v>
       </c>
       <c r="I578" t="n">
         <v>3</v>
@@ -43205,10 +42067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:37</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44278.50042824074</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -43284,10 +42144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:36</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44278.50041666667</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -43351,10 +42209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:35</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44278.50040509259</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -43422,10 +42278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:35</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44278.50040509259</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -43497,10 +42351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-03-23 12:00:33</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44278.50038194445</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
